--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_AnhTuanBG.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Lỗi thời gian</t>
+  </si>
+  <si>
+    <t>Update fix lỗi thời gian</t>
   </si>
 </sst>
 </file>
@@ -735,30 +738,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,6 +755,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,41 +1118,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -1182,57 +1185,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="56" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
@@ -1263,16 +1266,16 @@
       <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="69"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,7 +1319,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="64" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1347,7 +1350,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="47"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1376,7 +1379,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="57"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1405,7 +1408,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1434,7 +1437,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="57"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1463,7 +1466,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1495,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1523,7 +1526,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="57"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1552,7 +1555,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1581,7 +1584,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="55"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +1613,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="55"/>
-      <c r="U16" s="58"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3311,6 +3314,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3322,13 +3332,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3371,41 +3374,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -3438,57 +3441,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="56" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3519,16 +3522,16 @@
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="69"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,7 +3583,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="64" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3611,7 +3614,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="47"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3640,7 +3643,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="57"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3669,7 +3672,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -3698,7 +3701,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="57"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -3727,7 +3730,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3759,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3787,7 +3790,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="57"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -3816,7 +3819,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3874,7 +3877,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="58"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -5575,6 +5578,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5586,13 +5596,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5635,41 +5638,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -5702,57 +5705,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="56" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -5783,16 +5786,16 @@
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="69"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5836,7 +5839,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="47"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="64" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5895,7 +5898,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -5924,7 +5927,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="57"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5953,7 +5956,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -5982,7 +5985,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="57"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -6011,7 +6014,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -6040,7 +6043,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6071,7 +6074,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="57"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -6100,7 +6103,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -6129,7 +6132,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -6158,7 +6161,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="58"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -7859,6 +7862,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7870,13 +7880,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7919,41 +7922,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -7986,57 +7989,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="56" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -8067,16 +8070,16 @@
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="69"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8124,7 +8127,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="64" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8155,7 +8158,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="47"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8184,7 +8187,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="47"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="57"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -8213,7 +8216,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="47"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -8242,7 +8245,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="47"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="57"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -8271,7 +8274,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="47"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -8300,7 +8303,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8331,7 +8334,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="57"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -8360,7 +8363,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -8389,7 +8392,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -8418,7 +8421,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="58"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -10119,6 +10122,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10130,13 +10140,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10147,8 +10150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10179,41 +10182,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -10246,57 +10249,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="56" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
@@ -10327,16 +10330,16 @@
       <c r="K5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="69"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10390,7 +10393,7 @@
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="64" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10449,7 +10452,7 @@
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -10504,7 +10507,7 @@
       </c>
       <c r="S8" s="47"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="57"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -10561,7 +10564,7 @@
       </c>
       <c r="S9" s="47"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -10620,7 +10623,7 @@
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="57"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -10633,7 +10636,9 @@
       <c r="B11" s="40">
         <v>45133</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="40">
+        <v>39667</v>
+      </c>
       <c r="D11" s="39" t="s">
         <v>62</v>
       </c>
@@ -10655,15 +10660,25 @@
       <c r="L11" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="45"/>
+      <c r="M11" s="45" t="s">
+        <v>110</v>
+      </c>
       <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="46"/>
+      <c r="O11" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="47"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -10692,7 +10707,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10723,7 +10738,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="57"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -10752,7 +10767,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="47"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -10781,7 +10796,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="47"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -10810,7 +10825,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="47"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="58"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -12511,13 +12526,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12529,6 +12537,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
